--- a/architecture/class structure/class_structure.xlsx
+++ b/architecture/class structure/class_structure.xlsx
@@ -8,25 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Doutorado\Defesa\Projeto\vlc_simulator\architecture\class structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054C750E-9825-4BAA-B773-114DE75AAD5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95793905-902F-4F60-910F-E0AAA146C5F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15165" yWindow="3390" windowWidth="12180" windowHeight="10770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Animal" sheetId="1" r:id="rId1"/>
     <sheet name="Dog#Animal" sheetId="2" r:id="rId2"/>
+    <sheet name="LightSource" sheetId="3" r:id="rId3"/>
+    <sheet name="all_config" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>variables</t>
   </si>
@@ -70,9 +78,6 @@
     <t>argslist</t>
   </si>
   <si>
-    <t>func3</t>
-  </si>
-  <si>
     <t>datatype</t>
   </si>
   <si>
@@ -94,13 +99,73 @@
     <t>t</t>
   </si>
   <si>
-    <t>argslist_types</t>
-  </si>
-  <si>
-    <t>doc2</t>
-  </si>
-  <si>
     <t>0.3</t>
+  </si>
+  <si>
+    <t>Coluna1</t>
+  </si>
+  <si>
+    <t>light_type</t>
+  </si>
+  <si>
+    <t>psd</t>
+  </si>
+  <si>
+    <t>intensity</t>
+  </si>
+  <si>
+    <t>"LED"</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>Coluna2</t>
+  </si>
+  <si>
+    <t>Coluna3</t>
+  </si>
+  <si>
+    <t>Coluna4</t>
+  </si>
+  <si>
+    <t>data_types</t>
+  </si>
+  <si>
+    <t>dict</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>Stores the light type. Ex: LED, Laser, etc.</t>
+  </si>
+  <si>
+    <t>Stores the PSD (W/nm) over the wave number (nm)</t>
+  </si>
+  <si>
+    <t>Stores the intensities (W/m2) emitted by that light source over time (s).</t>
+  </si>
+  <si>
+    <t>Stores the path to the database file, from where we get all data for that light source.</t>
+  </si>
+  <si>
+    <t>getIntensityAtDistance</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>Returns the intensity (W) for a given distance (m).</t>
+  </si>
+  <si>
+    <t>{"wave_number": [], "psd": []}</t>
+  </si>
+  <si>
+    <t>{"time": [], "intensity": []}</t>
+  </si>
+  <si>
+    <t>r"..\Databases"</t>
   </si>
 </sst>
 </file>
@@ -150,16 +215,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -173,9 +275,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2FC4DB34-AA30-49A3-A6B8-1F418185EDC2}" name="Tabela1" displayName="Tabela1" ref="A1:H20" totalsRowShown="0">
-  <autoFilter ref="A1:H20" xr:uid="{A14FB639-7D8B-49EE-8B9E-A3CA497F13D0}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2FC4DB34-AA30-49A3-A6B8-1F418185EDC2}" name="Tabela1" displayName="Tabela1" ref="A1:G20" totalsRowShown="0">
+  <autoFilter ref="A1:G20" xr:uid="{A14FB639-7D8B-49EE-8B9E-A3CA497F13D0}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{64DE887B-7E75-491E-85FF-81DAAD9A66FD}" name="variables"/>
     <tableColumn id="2" xr3:uid="{8DB3D2FE-9E8B-4C4C-801F-12B5B14F1D21}" name="default"/>
     <tableColumn id="3" xr3:uid="{FB814A6D-93D8-42E9-8BB9-8FC2BDECE807}" name="comment"/>
@@ -183,7 +285,6 @@
     <tableColumn id="7" xr3:uid="{C5771688-1E9C-4010-8531-8AD53A0F8A7F}" name="methods"/>
     <tableColumn id="8" xr3:uid="{B47E00FC-72EC-413A-8BF0-C5738EBF35EE}" name="docstring"/>
     <tableColumn id="9" xr3:uid="{40C309D6-077E-41AB-94E0-BC35790CFC04}" name="argslist"/>
-    <tableColumn id="10" xr3:uid="{480D5FBE-C89C-437D-8AE4-3594CD0754D4}" name="argslist_types"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -192,14 +293,44 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{247CA3C7-E692-476A-9E23-964F46409097}" name="Tabela13" displayName="Tabela13" ref="A1:G1048576" totalsRowShown="0">
   <autoFilter ref="A1:G1048576" xr:uid="{A14FB639-7D8B-49EE-8B9E-A3CA497F13D0}"/>
-  <tableColumns count="7">
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{1F91F7E7-E702-4866-9AFB-D32627C1700D}" name="variables"/>
     <tableColumn id="2" xr3:uid="{24634EFC-F606-4CAE-8BB9-3300AFAAF998}" name="default"/>
     <tableColumn id="3" xr3:uid="{D569F943-195E-4170-B8BC-BEE0331493DF}" name="comment"/>
     <tableColumn id="4" xr3:uid="{926B60CA-11FA-4367-83E7-6EDF36789C5D}" name="datatype"/>
     <tableColumn id="7" xr3:uid="{DBBEBFE0-A3B8-4368-A6D8-427A0E0FADC5}" name="methods"/>
     <tableColumn id="8" xr3:uid="{9115028D-FA29-473A-8839-C6171DD8935B}" name="docstring"/>
-    <tableColumn id="9" xr3:uid="{360A72B7-9EF7-4A96-B3ED-FE9C252643D9}" name="argslist"/>
+    <tableColumn id="6" xr3:uid="{828327E8-854E-4D99-B4D4-1C044C42644E}" name="argslist"/>
+    <tableColumn id="9" xr3:uid="{360A72B7-9EF7-4A96-B3ED-FE9C252643D9}" name="Coluna1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8CDD11E4-7924-4726-8D01-731AFC930D92}" name="Tabela14" displayName="Tabela14" ref="A1:G20" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:G20" xr:uid="{A14FB639-7D8B-49EE-8B9E-A3CA497F13D0}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{27B96B26-E5A4-4D28-AE89-68CB8252DBCE}" name="variables" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{12579152-525B-4249-813B-71E9BA7B2222}" name="default" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{FFFBA5FB-3590-475C-9E35-64E76CA93718}" name="comment" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{B788236D-BD15-4CF9-B906-F336E3FB90E2}" name="datatype" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{681B3715-8EC2-4B5A-809C-5F714A5CC9F0}" name="methods" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{220196E2-D85B-4C5B-A76D-642CA7CD0694}" name="docstring" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{B86F2022-68DF-457C-84DE-E7BB27928E31}" name="argslist" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4AB5FF24-B55F-4FAA-8AF7-A4E0EE6ECAE5}" name="all_config_table" displayName="all_config_table" ref="A1:D11" totalsRowShown="0">
+  <autoFilter ref="A1:D11" xr:uid="{01493A64-5335-44D0-8ED4-958019048472}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{0AC0298B-DA7C-4314-8289-6C943683E10B}" name="data_types"/>
+    <tableColumn id="2" xr3:uid="{5A5B8B21-1D9F-446B-9D4D-68C0379C31FD}" name="Coluna2"/>
+    <tableColumn id="3" xr3:uid="{FADF9899-9619-4878-A800-AB10B9E0C0F9}" name="Coluna3"/>
+    <tableColumn id="4" xr3:uid="{4FB115A8-3A6A-4285-B705-F5CEAD614512}" name="Coluna4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -470,9 +601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -495,7 +624,7 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -505,9 +634,6 @@
       </c>
       <c r="G1" t="s">
         <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -515,11 +641,11 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -528,7 +654,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -542,7 +668,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -551,7 +677,7 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -565,7 +691,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -587,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B325B54B-B2B6-4AAA-8BC6-3935CF1C4FAF}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,6 +724,7 @@
     <col min="3" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -611,7 +738,7 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -628,11 +755,11 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -641,7 +768,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -655,17 +782,10 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -678,13 +798,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -696,4 +810,193 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F718C8CC-F3BB-4516-AF6A-68A6C7B966CF}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="4" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26" style="4" customWidth="1"/>
+    <col min="6" max="6" width="61.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{16D5218F-4022-4494-9A87-BAF61863D7AC}">
+      <formula1>INDIRECT("all_config_table[data_types]")</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A597D46D-180B-4DAE-AA3F-6EEC36DE0BB4}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/architecture/class structure/class_structure.xlsx
+++ b/architecture/class structure/class_structure.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Doutorado\Defesa\Projeto\vlc_simulator\architecture\class structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95793905-902F-4F60-910F-E0AAA146C5F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E442BACF-BD16-4253-90F1-6A98711E6E3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="13935" windowHeight="10770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Animal" sheetId="1" r:id="rId1"/>
-    <sheet name="Dog#Animal" sheetId="2" r:id="rId2"/>
-    <sheet name="LightSource" sheetId="3" r:id="rId3"/>
-    <sheet name="all_config" sheetId="4" r:id="rId4"/>
+    <sheet name="Transmitter" sheetId="5" r:id="rId1"/>
+    <sheet name="LightSource#Transmitter" sheetId="3" r:id="rId2"/>
+    <sheet name="all_config" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>variables</t>
   </si>
@@ -42,39 +41,15 @@
     <t>methods</t>
   </si>
   <si>
-    <t>var1</t>
-  </si>
-  <si>
-    <t>var2</t>
-  </si>
-  <si>
-    <t>var3</t>
-  </si>
-  <si>
-    <t>func1</t>
-  </si>
-  <si>
-    <t>func2</t>
-  </si>
-  <si>
     <t>default</t>
   </si>
   <si>
-    <t>"1"</t>
-  </si>
-  <si>
-    <t>var222</t>
-  </si>
-  <si>
     <t>comment</t>
   </si>
   <si>
     <t>docstring</t>
   </si>
   <si>
-    <t>func1 doc</t>
-  </si>
-  <si>
     <t>argslist</t>
   </si>
   <si>
@@ -90,21 +65,6 @@
     <t>float</t>
   </si>
   <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>a, n</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>Coluna1</t>
-  </si>
-  <si>
     <t>light_type</t>
   </si>
   <si>
@@ -120,18 +80,6 @@
     <t>database</t>
   </si>
   <si>
-    <t>Coluna2</t>
-  </si>
-  <si>
-    <t>Coluna3</t>
-  </si>
-  <si>
-    <t>Coluna4</t>
-  </si>
-  <si>
-    <t>data_types</t>
-  </si>
-  <si>
     <t>dict</t>
   </si>
   <si>
@@ -166,22 +114,32 @@
   </si>
   <si>
     <t>r"..\Databases"</t>
+  </si>
+  <si>
+    <t>allowed_data_types</t>
+  </si>
+  <si>
+    <t>__init__</t>
+  </si>
+  <si>
+    <t>Constructor of transmitter. Receives the light_type</t>
+  </si>
+  <si>
+    <t>parent_var</t>
+  </si>
+  <si>
+    <t>parent_var1,parent_var2</t>
+  </si>
+  <si>
+    <t>light_type, var1[parent_var1], var2[parent_var2]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -215,11 +173,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -233,7 +188,34 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="18">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -275,62 +257,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2FC4DB34-AA30-49A3-A6B8-1F418185EDC2}" name="Tabela1" displayName="Tabela1" ref="A1:G20" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4A81C11A-A17F-45A1-A0DD-4F495D9EDE4C}" name="Tabela143" displayName="Tabela143" ref="A1:G20" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G20" xr:uid="{A14FB639-7D8B-49EE-8B9E-A3CA497F13D0}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{64DE887B-7E75-491E-85FF-81DAAD9A66FD}" name="variables"/>
-    <tableColumn id="2" xr3:uid="{8DB3D2FE-9E8B-4C4C-801F-12B5B14F1D21}" name="default"/>
-    <tableColumn id="3" xr3:uid="{FB814A6D-93D8-42E9-8BB9-8FC2BDECE807}" name="comment"/>
-    <tableColumn id="5" xr3:uid="{CBEAEB13-41E2-4C4B-AED5-1EADCBF4EDBB}" name="datatype"/>
-    <tableColumn id="7" xr3:uid="{C5771688-1E9C-4010-8531-8AD53A0F8A7F}" name="methods"/>
-    <tableColumn id="8" xr3:uid="{B47E00FC-72EC-413A-8BF0-C5738EBF35EE}" name="docstring"/>
-    <tableColumn id="9" xr3:uid="{40C309D6-077E-41AB-94E0-BC35790CFC04}" name="argslist"/>
+    <tableColumn id="1" xr3:uid="{98BB1FD8-4056-48BD-BFFF-2ADFCE6A0687}" name="variables" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{0185E26E-DF84-492A-B6B2-80BE14E2CFD9}" name="default" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{584CB40A-8319-43F8-9153-08868626121C}" name="comment" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{24835E99-1F02-453E-AE1B-C7CCACEC343B}" name="datatype" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{48F26C5B-2B4C-4DF2-A013-EB09F1347FB1}" name="methods" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{B17CF5FA-4FBA-4F4D-A725-1B0F0838E3DF}" name="docstring" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{29F2CC07-CDA5-42A9-B7B2-6F293C6F6E05}" name="argslist" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{247CA3C7-E692-476A-9E23-964F46409097}" name="Tabela13" displayName="Tabela13" ref="A1:G1048576" totalsRowShown="0">
-  <autoFilter ref="A1:G1048576" xr:uid="{A14FB639-7D8B-49EE-8B9E-A3CA497F13D0}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{1F91F7E7-E702-4866-9AFB-D32627C1700D}" name="variables"/>
-    <tableColumn id="2" xr3:uid="{24634EFC-F606-4CAE-8BB9-3300AFAAF998}" name="default"/>
-    <tableColumn id="3" xr3:uid="{D569F943-195E-4170-B8BC-BEE0331493DF}" name="comment"/>
-    <tableColumn id="4" xr3:uid="{926B60CA-11FA-4367-83E7-6EDF36789C5D}" name="datatype"/>
-    <tableColumn id="7" xr3:uid="{DBBEBFE0-A3B8-4368-A6D8-427A0E0FADC5}" name="methods"/>
-    <tableColumn id="8" xr3:uid="{9115028D-FA29-473A-8839-C6171DD8935B}" name="docstring"/>
-    <tableColumn id="6" xr3:uid="{828327E8-854E-4D99-B4D4-1C044C42644E}" name="argslist"/>
-    <tableColumn id="9" xr3:uid="{360A72B7-9EF7-4A96-B3ED-FE9C252643D9}" name="Coluna1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8CDD11E4-7924-4726-8D01-731AFC930D92}" name="Tabela14" displayName="Tabela14" ref="A1:G20" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:G20" xr:uid="{A14FB639-7D8B-49EE-8B9E-A3CA497F13D0}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{27B96B26-E5A4-4D28-AE89-68CB8252DBCE}" name="variables" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{12579152-525B-4249-813B-71E9BA7B2222}" name="default" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{FFFBA5FB-3590-475C-9E35-64E76CA93718}" name="comment" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{B788236D-BD15-4CF9-B906-F336E3FB90E2}" name="datatype" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{681B3715-8EC2-4B5A-809C-5F714A5CC9F0}" name="methods" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{220196E2-D85B-4C5B-A76D-642CA7CD0694}" name="docstring" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{B86F2022-68DF-457C-84DE-E7BB27928E31}" name="argslist" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8CDD11E4-7924-4726-8D01-731AFC930D92}" name="Tabela14" displayName="Tabela14" ref="A1:G20" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:G20" xr:uid="{A14FB639-7D8B-49EE-8B9E-A3CA497F13D0}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{27B96B26-E5A4-4D28-AE89-68CB8252DBCE}" name="variables" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{12579152-525B-4249-813B-71E9BA7B2222}" name="default" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{FFFBA5FB-3590-475C-9E35-64E76CA93718}" name="comment" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{B788236D-BD15-4CF9-B906-F336E3FB90E2}" name="datatype" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{681B3715-8EC2-4B5A-809C-5F714A5CC9F0}" name="methods" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{220196E2-D85B-4C5B-A76D-642CA7CD0694}" name="docstring" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{B86F2022-68DF-457C-84DE-E7BB27928E31}" name="argslist" dataDxfId="2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4AB5FF24-B55F-4FAA-8AF7-A4E0EE6ECAE5}" name="all_config_table" displayName="all_config_table" ref="A1:D11" totalsRowShown="0">
-  <autoFilter ref="A1:D11" xr:uid="{01493A64-5335-44D0-8ED4-958019048472}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{0AC0298B-DA7C-4314-8289-6C943683E10B}" name="data_types"/>
-    <tableColumn id="2" xr3:uid="{5A5B8B21-1D9F-446B-9D4D-68C0379C31FD}" name="Coluna2"/>
-    <tableColumn id="3" xr3:uid="{FADF9899-9619-4878-A800-AB10B9E0C0F9}" name="Coluna3"/>
-    <tableColumn id="4" xr3:uid="{4FB115A8-3A6A-4285-B705-F5CEAD614512}" name="Coluna4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4AB5FF24-B55F-4FAA-8AF7-A4E0EE6ECAE5}" name="all_config_table" displayName="all_config_table" ref="A1:A6" totalsRowShown="0">
+  <autoFilter ref="A1:A6" xr:uid="{01493A64-5335-44D0-8ED4-958019048472}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{0AC0298B-DA7C-4314-8289-6C943683E10B}" name="allowed_data_types"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -598,338 +560,138 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D471E47-D290-4F23-B69B-0940F1F3956C}">
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1" customWidth="1"/>
+    <col min="6" max="6" width="61.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2"/>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>-2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B325B54B-B2B6-4AAA-8BC6-3935CF1C4FAF}">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>-2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F718C8CC-F3BB-4516-AF6A-68A6C7B966CF}">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29" style="4" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26" style="4" customWidth="1"/>
-    <col min="6" max="6" width="61.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{16D5218F-4022-4494-9A87-BAF61863D7AC}">
-      <formula1>INDIRECT("all_config_table[data_types]")</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D20" xr:uid="{1FFF1C39-C6E8-4DAF-A1DF-2ACAE6741BB8}">
+      <formula1>INDIRECT("all_config_table[allowed_data_types]")</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -939,61 +701,229 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F718C8CC-F3BB-4516-AF6A-68A6C7B966CF}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1" customWidth="1"/>
+    <col min="6" max="6" width="61.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="2"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D20" xr:uid="{BEA82457-A29E-4C19-8D3B-4DDE7508DFE7}">
+      <formula1>INDIRECT("all_config_table[allowed_data_types]")</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A597D46D-180B-4DAE-AA3F-6EEC36DE0BB4}">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/architecture/class structure/class_structure.xlsx
+++ b/architecture/class structure/class_structure.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Doutorado\Defesa\Projeto\vlc_simulator\architecture\class structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E442BACF-BD16-4253-90F1-6A98711E6E3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECB7394-6423-4016-800D-5AA256A5DD42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="13935" windowHeight="10770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Transmitter" sheetId="5" r:id="rId1"/>
-    <sheet name="LightSource#Transmitter" sheetId="3" r:id="rId2"/>
-    <sheet name="all_config" sheetId="4" r:id="rId3"/>
+    <sheet name="Tanner#Simulators" sheetId="15" r:id="rId1"/>
+    <sheet name="Virtuoso#Simulators" sheetId="14" r:id="rId2"/>
+    <sheet name="Simulators#Circuit" sheetId="13" r:id="rId3"/>
+    <sheet name="Ambient#Global" sheetId="12" r:id="rId4"/>
+    <sheet name="MeritFunctions#Global" sheetId="11" r:id="rId5"/>
+    <sheet name="Global" sheetId="10" r:id="rId6"/>
+    <sheet name="Circuit#Receiver" sheetId="9" r:id="rId7"/>
+    <sheet name="Detector#Receiver" sheetId="8" r:id="rId8"/>
+    <sheet name="Receiver" sheetId="7" r:id="rId9"/>
+    <sheet name="Channel" sheetId="6" r:id="rId10"/>
+    <sheet name="Transmitter" sheetId="5" r:id="rId11"/>
+    <sheet name="LightSource#Transmitter" sheetId="3" r:id="rId12"/>
+    <sheet name="all_config" sheetId="4" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="34">
   <si>
     <t>variables</t>
   </si>
@@ -132,6 +142,9 @@
   </si>
   <si>
     <t>light_type, var1[parent_var1], var2[parent_var2]</t>
+  </si>
+  <si>
+    <t>Constructor.</t>
   </si>
 </sst>
 </file>
@@ -188,7 +201,277 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="108">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -257,42 +540,202 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4A81C11A-A17F-45A1-A0DD-4F495D9EDE4C}" name="Tabela143" displayName="Tabela143" ref="A1:G20" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{98872EF8-9403-4874-824A-9575FB9D2878}" name="Tabela143678121314" displayName="Tabela143678121314" ref="A1:G20" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G20" xr:uid="{A14FB639-7D8B-49EE-8B9E-A3CA497F13D0}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{98BB1FD8-4056-48BD-BFFF-2ADFCE6A0687}" name="variables" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{0185E26E-DF84-492A-B6B2-80BE14E2CFD9}" name="default" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{584CB40A-8319-43F8-9153-08868626121C}" name="comment" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{24835E99-1F02-453E-AE1B-C7CCACEC343B}" name="datatype" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{48F26C5B-2B4C-4DF2-A013-EB09F1347FB1}" name="methods" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{B17CF5FA-4FBA-4F4D-A725-1B0F0838E3DF}" name="docstring" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{29F2CC07-CDA5-42A9-B7B2-6F293C6F6E05}" name="argslist" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{B974A319-9F47-4D15-8E55-595044AC79D3}" name="variables" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{CEE9FE8D-377D-4D50-855D-C22D6F29F286}" name="default" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{694B0F5D-9F1F-4B75-8FAA-D0EED1B67466}" name="comment" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{E45053C2-9EBD-49BA-8A9A-532E60F99F18}" name="datatype" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{4A723DED-868C-4AEF-89C7-E9B816A0975B}" name="methods" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{987B9E5D-D114-448B-B79C-D9DF8681BD05}" name="docstring" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{F728E074-6999-407A-B836-37AE73D83EB7}" name="argslist" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8CDD11E4-7924-4726-8D01-731AFC930D92}" name="Tabela14" displayName="Tabela14" ref="A1:G20" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74C36889-6DF9-427A-8C7C-BE6668359F95}" name="Tabela1432" displayName="Tabela1432" ref="A1:G20" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
   <autoFilter ref="A1:G20" xr:uid="{A14FB639-7D8B-49EE-8B9E-A3CA497F13D0}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{27B96B26-E5A4-4D28-AE89-68CB8252DBCE}" name="variables" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{12579152-525B-4249-813B-71E9BA7B2222}" name="default" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{FFFBA5FB-3590-475C-9E35-64E76CA93718}" name="comment" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{B788236D-BD15-4CF9-B906-F336E3FB90E2}" name="datatype" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{681B3715-8EC2-4B5A-809C-5F714A5CC9F0}" name="methods" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{220196E2-D85B-4C5B-A76D-642CA7CD0694}" name="docstring" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{B86F2022-68DF-457C-84DE-E7BB27928E31}" name="argslist" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{39FEEDA4-B566-442E-A94E-1EBCA62CAC69}" name="variables" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{296E69E7-5CD0-45D7-8C87-C43272B745C7}" name="default" dataDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{B001AA63-FDCC-4881-AF70-7F559B12CCCD}" name="comment" dataDxfId="85"/>
+    <tableColumn id="5" xr3:uid="{D235B433-0AA8-4729-8BA5-9A11D5F61665}" name="datatype" dataDxfId="84"/>
+    <tableColumn id="7" xr3:uid="{3A174C78-3C34-4712-A2AC-5962BCA3B412}" name="methods" dataDxfId="83"/>
+    <tableColumn id="8" xr3:uid="{D4D27E78-8914-4CD5-8DC3-1AA822F00E5B}" name="docstring" dataDxfId="82"/>
+    <tableColumn id="9" xr3:uid="{D0C5CDF5-55CB-465B-944D-2029333706BB}" name="argslist" dataDxfId="81"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4A81C11A-A17F-45A1-A0DD-4F495D9EDE4C}" name="Tabela143" displayName="Tabela143" ref="A1:G20" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+  <autoFilter ref="A1:G20" xr:uid="{A14FB639-7D8B-49EE-8B9E-A3CA497F13D0}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{98BB1FD8-4056-48BD-BFFF-2ADFCE6A0687}" name="variables" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{0185E26E-DF84-492A-B6B2-80BE14E2CFD9}" name="default" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{584CB40A-8319-43F8-9153-08868626121C}" name="comment" dataDxfId="103"/>
+    <tableColumn id="5" xr3:uid="{24835E99-1F02-453E-AE1B-C7CCACEC343B}" name="datatype" dataDxfId="102"/>
+    <tableColumn id="7" xr3:uid="{48F26C5B-2B4C-4DF2-A013-EB09F1347FB1}" name="methods" dataDxfId="101"/>
+    <tableColumn id="8" xr3:uid="{B17CF5FA-4FBA-4F4D-A725-1B0F0838E3DF}" name="docstring" dataDxfId="100"/>
+    <tableColumn id="9" xr3:uid="{29F2CC07-CDA5-42A9-B7B2-6F293C6F6E05}" name="argslist" dataDxfId="99"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8CDD11E4-7924-4726-8D01-731AFC930D92}" name="Tabela14" displayName="Tabela14" ref="A1:G20" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
+  <autoFilter ref="A1:G20" xr:uid="{A14FB639-7D8B-49EE-8B9E-A3CA497F13D0}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{27B96B26-E5A4-4D28-AE89-68CB8252DBCE}" name="variables" dataDxfId="96"/>
+    <tableColumn id="2" xr3:uid="{12579152-525B-4249-813B-71E9BA7B2222}" name="default" dataDxfId="95"/>
+    <tableColumn id="3" xr3:uid="{FFFBA5FB-3590-475C-9E35-64E76CA93718}" name="comment" dataDxfId="94"/>
+    <tableColumn id="5" xr3:uid="{B788236D-BD15-4CF9-B906-F336E3FB90E2}" name="datatype" dataDxfId="93"/>
+    <tableColumn id="7" xr3:uid="{681B3715-8EC2-4B5A-809C-5F714A5CC9F0}" name="methods" dataDxfId="92"/>
+    <tableColumn id="8" xr3:uid="{220196E2-D85B-4C5B-A76D-642CA7CD0694}" name="docstring" dataDxfId="91"/>
+    <tableColumn id="9" xr3:uid="{B86F2022-68DF-457C-84DE-E7BB27928E31}" name="argslist" dataDxfId="90"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4AB5FF24-B55F-4FAA-8AF7-A4E0EE6ECAE5}" name="all_config_table" displayName="all_config_table" ref="A1:A6" totalsRowShown="0">
   <autoFilter ref="A1:A6" xr:uid="{01493A64-5335-44D0-8ED4-958019048472}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{0AC0298B-DA7C-4314-8289-6C943683E10B}" name="allowed_data_types"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E1C1DA1D-D8A6-408F-9BEF-730AB315551E}" name="Tabela1436781213" displayName="Tabela1436781213" ref="A1:G20" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:G20" xr:uid="{A14FB639-7D8B-49EE-8B9E-A3CA497F13D0}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{EEBD7186-9B6F-4DB4-9551-943E0DFB48A2}" name="variables" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{8DC3D22F-D904-4F8E-A7BC-09C281E0D7D5}" name="default" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{E6D89734-767B-4676-B6DF-15738DCF9A98}" name="comment" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{A4EF596E-DE16-4070-A866-6BC117D92571}" name="datatype" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{4BB582AA-0E20-4B82-B255-7C606042D226}" name="methods" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{3213BB04-4B0C-4855-BE1D-10B592FDFFD0}" name="docstring" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{ED33FED9-21D1-4C3F-B3EE-4A73F3472F64}" name="argslist" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{67EC4C73-DEEC-4408-8A51-C3A624A8FE34}" name="Tabela14367812" displayName="Tabela14367812" ref="A1:G20" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="A1:G20" xr:uid="{A14FB639-7D8B-49EE-8B9E-A3CA497F13D0}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{CA69DB4F-D9BB-40EA-B8AC-B5FDC4BA63E9}" name="variables" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{2ABD5AE0-B164-4EDB-B3E1-CB6466339BBA}" name="default" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{C31C3279-C512-4F0E-8B53-5F0FBD3D9780}" name="comment" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{7358E6F9-ADDE-451C-974A-9A4AF2675682}" name="datatype" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{41A8938B-8104-4B4A-B5EE-E17A92740A08}" name="methods" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{B5FA1D9F-46EC-4C2D-A1FA-3AE75FC75FEA}" name="docstring" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{8E6A6F13-CF0B-4075-959C-416E51627DC2}" name="argslist" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{C28C19FA-0779-4E26-9608-395E019FD169}" name="Tabela143691011" displayName="Tabela143691011" ref="A1:G20" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+  <autoFilter ref="A1:G20" xr:uid="{A14FB639-7D8B-49EE-8B9E-A3CA497F13D0}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{86C945A4-0E46-486C-B1D1-6C521AB2070F}" name="variables" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{7D60279C-BBE4-4465-9711-F72EE16A8D2D}" name="default" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{FBCD59CB-7F0C-460F-B766-97F848B082C8}" name="comment" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{D73AFB5F-994B-4582-8728-484EB59C53F7}" name="datatype" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{F350638F-71EA-4F5E-8D40-AE34DED4D07E}" name="methods" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{8DEF26EB-25F4-4F03-85F0-71E901BA95EB}" name="docstring" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{C6BA83E0-69C5-4353-9DB8-3D7ED7FC10F7}" name="argslist" dataDxfId="27"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{846D0CD1-191C-44FD-B0CC-BEC5B4052A14}" name="Tabela1436910" displayName="Tabela1436910" ref="A1:G20" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+  <autoFilter ref="A1:G20" xr:uid="{A14FB639-7D8B-49EE-8B9E-A3CA497F13D0}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{126B01CA-FCA4-4171-A721-B2185B668021}" name="variables" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{C6376500-3DBB-41C1-ACB8-A5E0EB19B75A}" name="default" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{0A867DD9-7C6D-4D79-8C36-30F41922797C}" name="comment" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{4550E116-07BA-45F7-A723-8FF1DDD74A30}" name="datatype" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{86586421-151B-4C4E-9C07-4AAFFA8562DB}" name="methods" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{F87BC95B-17EB-4936-BB79-053ED26A2AF8}" name="docstring" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{27E1E039-2BAD-42AF-BE3A-EF6E483EC6D7}" name="argslist" dataDxfId="36"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{95C1143F-8BC7-4261-B52E-3B15611BF9C4}" name="Tabela14369" displayName="Tabela14369" ref="A1:G20" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+  <autoFilter ref="A1:G20" xr:uid="{A14FB639-7D8B-49EE-8B9E-A3CA497F13D0}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{B2C54B6E-776A-486F-B9EF-312B4365D493}" name="variables" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{BC180735-8D1E-4B26-A80C-5F816103B768}" name="default" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{341AB26E-1938-48EC-AF9D-03337871677C}" name="comment" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{2409BF0A-E8C8-47C0-822A-E676DEF0DC03}" name="datatype" dataDxfId="48"/>
+    <tableColumn id="7" xr3:uid="{47E66584-243B-4B5F-9A07-51E1D6FEB812}" name="methods" dataDxfId="47"/>
+    <tableColumn id="8" xr3:uid="{ECE17811-561F-4FBC-829B-56D5E1233012}" name="docstring" dataDxfId="46"/>
+    <tableColumn id="9" xr3:uid="{EA999F01-9418-471B-A604-6D8A14171491}" name="argslist" dataDxfId="45"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B3F022D5-2F46-4412-A5BC-660D3DDCF3F8}" name="Tabela143678" displayName="Tabela143678" ref="A1:G20" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
+  <autoFilter ref="A1:G20" xr:uid="{A14FB639-7D8B-49EE-8B9E-A3CA497F13D0}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{CCCC1A61-3DB6-46C5-8FC0-DA1CFC21D182}" name="variables" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{90573EAB-A4C2-4EC7-A44C-C2AF32A274AE}" name="default" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{EA6E0A3A-D254-4371-B241-710DE55F1DFA}" name="comment" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{DE2B11D8-07E3-4475-A030-D6338CA47F6E}" name="datatype" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{6FD58299-2382-4BDC-A5FF-B87326BE113B}" name="methods" dataDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{58864201-AC1E-4620-AC61-7FF39CCA1A79}" name="docstring" dataDxfId="55"/>
+    <tableColumn id="9" xr3:uid="{1F62C1D1-EAF1-4D95-A6E0-E94B5F412C49}" name="argslist" dataDxfId="54"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{82FBFBDE-3364-4DF0-B70C-D43DAC880ECA}" name="Tabela14367" displayName="Tabela14367" ref="A1:G20" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+  <autoFilter ref="A1:G20" xr:uid="{A14FB639-7D8B-49EE-8B9E-A3CA497F13D0}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{117434BB-8271-41FF-96FA-4A4789E185A1}" name="variables" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{2D69AB27-4E08-412E-969E-9301A8B11B1B}" name="default" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{E6DD3D3A-2F22-40AA-AF30-1127D8D6EBC2}" name="comment" dataDxfId="67"/>
+    <tableColumn id="5" xr3:uid="{6A9C4F7C-FC7C-4068-8924-48C1697C6800}" name="datatype" dataDxfId="66"/>
+    <tableColumn id="7" xr3:uid="{DF1E7080-8549-4699-99A9-64BB718AAEC7}" name="methods" dataDxfId="65"/>
+    <tableColumn id="8" xr3:uid="{4F4F70FF-8CFA-46DD-BB67-424FCE6C31B0}" name="docstring" dataDxfId="64"/>
+    <tableColumn id="9" xr3:uid="{88834054-F0FF-452D-A9E1-9997A4FE583B}" name="argslist" dataDxfId="63"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{009AC3B0-CC9A-47C9-96C8-2164C0BA34D2}" name="Tabela1436" displayName="Tabela1436" ref="A1:G20" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
+  <autoFilter ref="A1:G20" xr:uid="{A14FB639-7D8B-49EE-8B9E-A3CA497F13D0}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{7E9FE644-6D9F-44CE-8DE9-ED8B85398813}" name="variables" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{F2EBA906-A92C-4806-95A1-702B8F7E291F}" name="default" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{65D69E78-37F9-49D1-AF1B-DA7FC695DDF5}" name="comment" dataDxfId="76"/>
+    <tableColumn id="5" xr3:uid="{D4F6121F-7960-42CF-BF1F-837CEC7528E5}" name="datatype" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{D2DEC36F-1596-4331-83A6-23DD119955C2}" name="methods" dataDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{577025AA-BD4C-40D5-B7BC-9913EC93BE35}" name="docstring" dataDxfId="73"/>
+    <tableColumn id="9" xr3:uid="{E7AFDD87-B29D-41E3-9B9F-FA117F6A7757}" name="argslist" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -560,6 +1003,268 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72223344-61FC-4B47-A8E3-BF9530352489}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1" customWidth="1"/>
+    <col min="6" max="6" width="61.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="2"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D20" xr:uid="{B26F31C6-A419-4057-B1F4-7CE6A7187213}">
+      <formula1>INDIRECT("all_config_table[allowed_data_types]")</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CB1302-B524-4F7E-93C9-0D80792C4D5E}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1" customWidth="1"/>
+    <col min="6" max="6" width="61.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="2"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D20" xr:uid="{DF210F4C-CCC9-46F5-A65B-30B134FD1E9C}">
+      <formula1>INDIRECT("all_config_table[allowed_data_types]")</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D471E47-D290-4F23-B69B-0940F1F3956C}">
   <dimension ref="A1:H20"/>
   <sheetViews>
@@ -701,11 +1406,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F718C8CC-F3BB-4516-AF6A-68A6C7B966CF}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -878,7 +1585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A597D46D-180B-4DAE-AA3F-6EEC36DE0BB4}">
   <dimension ref="A1:J6"/>
   <sheetViews>
@@ -929,4 +1636,1052 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3AF231-1A8E-4AC2-8B3E-68A391D97329}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1" customWidth="1"/>
+    <col min="6" max="6" width="61.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="2"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D20" xr:uid="{DA48BB77-3E03-401C-A17A-A1C4D199378B}">
+      <formula1>INDIRECT("all_config_table[allowed_data_types]")</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927DBE09-92F7-4F3A-9A51-CFB678C4B312}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1" customWidth="1"/>
+    <col min="6" max="6" width="61.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="2"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D20" xr:uid="{64F2739C-DC59-4CDC-8BDF-00DAAF656244}">
+      <formula1>INDIRECT("all_config_table[allowed_data_types]")</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7779EE1D-4436-489C-9438-B05CBEAF941D}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1" customWidth="1"/>
+    <col min="6" max="6" width="61.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="2"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D20" xr:uid="{96CA43EC-9BC5-4524-8E4B-B96B4E2EDC0B}">
+      <formula1>INDIRECT("all_config_table[allowed_data_types]")</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557E7D15-4B6E-4556-AA25-CD59CF4E67DE}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1" customWidth="1"/>
+    <col min="6" max="6" width="61.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="2"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D20" xr:uid="{EFFB1708-A026-467C-BD59-E8D7C32F69D6}">
+      <formula1>INDIRECT("all_config_table[allowed_data_types]")</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CFF0D3-5641-4D0B-85A9-B97C2E01BEC5}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1" customWidth="1"/>
+    <col min="6" max="6" width="61.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="2"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D20" xr:uid="{6B4A5002-7452-4614-A6B9-EF0A155395C2}">
+      <formula1>INDIRECT("all_config_table[allowed_data_types]")</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67BF729C-B1C6-4DD6-ABAA-7588BA6C9703}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1" customWidth="1"/>
+    <col min="6" max="6" width="61.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="2"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D20" xr:uid="{78384CCE-29FC-47E7-BC36-6D986943E2F1}">
+      <formula1>INDIRECT("all_config_table[allowed_data_types]")</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C430713-4ACE-4E88-B11D-3FC19ABEBD38}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1" customWidth="1"/>
+    <col min="6" max="6" width="61.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="2"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D20" xr:uid="{D3694417-A25C-4553-86EE-D03E107591C4}">
+      <formula1>INDIRECT("all_config_table[allowed_data_types]")</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F69F66C-FDD4-44CA-9937-ACFA582DF672}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1" customWidth="1"/>
+    <col min="6" max="6" width="61.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="2"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D20" xr:uid="{4E3400BD-2E7D-40EB-9BCC-13A4A31B6417}">
+      <formula1>INDIRECT("all_config_table[allowed_data_types]")</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>